--- a/public/assets/files/balance.xlsx
+++ b/public/assets/files/balance.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contabilidad\AppContador\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCF04A2-19B2-49EC-93E5-DD37FBC864F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB9AE26-DE43-4308-B9AA-8190AD6CCCF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BG" sheetId="1" r:id="rId1"/>
     <sheet name="PL" sheetId="2" r:id="rId2"/>
-    <sheet name="DATA" sheetId="4" r:id="rId3"/>
-    <sheet name="Homologacion" sheetId="5" r:id="rId4"/>
+    <sheet name="DATA" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Homologacion" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATA!$A$1:$AA$215</definedName>
@@ -679,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -799,15 +799,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -824,9 +815,21 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1215,8 +1218,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I35" sqref="I10:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1269,13 +1272,13 @@
     </row>
     <row r="8" spans="2:1024" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="7"/>
       <c r="K8" s="10"/>
     </row>
@@ -1306,14 +1309,14 @@
         <v>4</v>
       </c>
       <c r="C10" s="19"/>
-      <c r="D10" s="85"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="85"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="19"/>
       <c r="K10" s="21"/>
       <c r="L10" s="20"/>
@@ -1385,12 +1388,12 @@
         <v>6</v>
       </c>
       <c r="C11" s="19"/>
-      <c r="D11" s="85"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="85"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="19"/>
       <c r="K11" s="21"/>
       <c r="L11" s="20"/>
@@ -1462,14 +1465,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="85"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="85"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="19"/>
       <c r="K12" s="21"/>
       <c r="L12" s="20"/>
@@ -1541,12 +1544,12 @@
         <v>9</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="85"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="85"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="19"/>
       <c r="K13" s="21"/>
       <c r="L13" s="20"/>
@@ -1618,14 +1621,14 @@
         <v>10</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="85"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="19"/>
-      <c r="I14" s="85"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="19"/>
       <c r="K14" s="21"/>
       <c r="L14" s="20"/>
@@ -1697,12 +1700,12 @@
         <v>12</v>
       </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="85"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="85"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="19"/>
       <c r="K15" s="21"/>
       <c r="L15" s="20"/>
@@ -1774,12 +1777,12 @@
         <v>13</v>
       </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="85"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="85"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="19"/>
       <c r="K16" s="21"/>
       <c r="L16" s="20"/>
@@ -1849,12 +1852,12 @@
     <row r="17" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="85"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="85"/>
+      <c r="I17" s="90"/>
       <c r="J17" s="19"/>
       <c r="K17" s="21"/>
       <c r="L17" s="20"/>
@@ -1926,14 +1929,14 @@
         <v>14</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="87"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="23"/>
-      <c r="I18" s="87"/>
+      <c r="I18" s="91"/>
       <c r="J18" s="19"/>
       <c r="K18" s="21"/>
       <c r="L18" s="24"/>
@@ -2003,12 +2006,12 @@
     <row r="19" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="85"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="85"/>
+      <c r="I19" s="90"/>
       <c r="J19" s="19"/>
       <c r="K19" s="21"/>
       <c r="L19" s="20"/>
@@ -2078,12 +2081,12 @@
     <row r="20" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="85"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="85"/>
+      <c r="I20" s="90"/>
       <c r="J20" s="19"/>
       <c r="K20" s="21"/>
       <c r="L20" s="20"/>
@@ -2153,12 +2156,12 @@
     <row r="21" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="85"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="85"/>
+      <c r="I21" s="90"/>
       <c r="J21" s="19"/>
       <c r="K21" s="21"/>
       <c r="L21" s="20"/>
@@ -2230,14 +2233,14 @@
         <v>16</v>
       </c>
       <c r="C22" s="19"/>
-      <c r="D22" s="85"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="90"/>
-      <c r="I22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="90"/>
       <c r="J22" s="19"/>
       <c r="K22" s="21"/>
       <c r="L22" s="20"/>
@@ -2307,12 +2310,12 @@
     <row r="23" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="85"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="85"/>
+      <c r="I23" s="90"/>
       <c r="J23" s="19"/>
       <c r="K23" s="21"/>
       <c r="L23" s="20"/>
@@ -2384,14 +2387,14 @@
         <v>18</v>
       </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="85"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="85"/>
+      <c r="I24" s="90"/>
       <c r="J24" s="19"/>
       <c r="K24" s="21"/>
       <c r="L24" s="20"/>
@@ -2461,14 +2464,14 @@
     <row r="25" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="85"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="85"/>
+      <c r="I25" s="90"/>
       <c r="J25" s="19"/>
       <c r="K25" s="21"/>
       <c r="L25" s="20"/>
@@ -2540,12 +2543,12 @@
         <v>21</v>
       </c>
       <c r="C26" s="19"/>
-      <c r="D26" s="85"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="85"/>
+      <c r="I26" s="90"/>
       <c r="J26" s="19"/>
       <c r="K26" s="21"/>
       <c r="L26" s="20"/>
@@ -2617,14 +2620,14 @@
         <v>22</v>
       </c>
       <c r="C27" s="27"/>
-      <c r="D27" s="87"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="87"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="19"/>
       <c r="K27" s="21"/>
       <c r="L27" s="24"/>
@@ -2694,14 +2697,14 @@
     <row r="28" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="85"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="25" t="s">
         <v>73</v>
       </c>
       <c r="H28" s="19"/>
-      <c r="I28" s="85">
+      <c r="I28" s="90">
         <f>I27+I18</f>
         <v>0</v>
       </c>
@@ -2774,12 +2777,12 @@
     <row r="29" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="85"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="85"/>
+      <c r="I29" s="90"/>
       <c r="J29" s="19"/>
       <c r="K29" s="21"/>
       <c r="L29" s="20"/>
@@ -2849,14 +2852,14 @@
     <row r="30" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="85"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="19"/>
-      <c r="I30" s="85"/>
+      <c r="I30" s="90"/>
       <c r="J30" s="19"/>
       <c r="K30" s="21"/>
       <c r="L30" s="20"/>
@@ -2926,14 +2929,14 @@
     <row r="31" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="85"/>
+      <c r="D31" s="90"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="19" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="19"/>
-      <c r="I31" s="85"/>
+      <c r="I31" s="90"/>
       <c r="J31" s="19"/>
       <c r="K31" s="21"/>
       <c r="L31" s="20"/>
@@ -3003,14 +3006,14 @@
     <row r="32" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="85"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="19" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="19"/>
-      <c r="I32" s="85"/>
+      <c r="I32" s="90"/>
       <c r="J32" s="19"/>
       <c r="K32" s="21"/>
       <c r="L32" s="20"/>
@@ -3080,14 +3083,14 @@
     <row r="33" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="88"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="25" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="27"/>
-      <c r="I33" s="89"/>
+      <c r="I33" s="93"/>
       <c r="J33" s="19"/>
       <c r="K33" s="21"/>
       <c r="L33" s="19"/>
@@ -3157,12 +3160,12 @@
     <row r="34" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="88"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="88"/>
+      <c r="I34" s="92"/>
       <c r="J34" s="19"/>
       <c r="K34" s="21"/>
       <c r="L34" s="19"/>
@@ -3232,12 +3235,12 @@
     <row r="35" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="88"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="88"/>
+      <c r="I35" s="92"/>
       <c r="J35" s="19"/>
       <c r="K35" s="21"/>
       <c r="L35" s="19"/>
@@ -3311,7 +3314,7 @@
       <c r="C36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="87"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="25" t="s">
@@ -3320,7 +3323,7 @@
       <c r="H36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="89">
+      <c r="I36" s="85">
         <f>I33+I28</f>
         <v>0</v>
       </c>
@@ -3456,8 +3459,8 @@
     </row>
     <row r="43" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B43" s="19"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
     </row>
@@ -3710,8 +3713,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3784,9 +3787,9 @@
         <v>33</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="42"/>
     </row>
     <row r="10" spans="2:135" x14ac:dyDescent="0.2">
@@ -3795,11 +3798,9 @@
         <v>34</v>
       </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="85">
-        <v>0</v>
-      </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="44"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -3935,11 +3936,9 @@
         <v>35</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="85">
-        <v>0</v>
-      </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="46"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -4073,11 +4072,9 @@
       <c r="B12" s="43"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="85">
-        <v>0</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="44"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -4213,11 +4210,9 @@
         <v>36</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="85">
-        <v>0</v>
-      </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="44"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -4353,11 +4348,9 @@
         <v>37</v>
       </c>
       <c r="D14" s="33"/>
-      <c r="E14" s="85">
-        <v>0</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="46"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -4493,11 +4486,9 @@
         <v>38</v>
       </c>
       <c r="D15" s="33"/>
-      <c r="E15" s="85">
-        <v>0</v>
-      </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="86"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="46"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
@@ -4631,11 +4622,9 @@
       <c r="B16" s="43"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="85">
-        <v>0</v>
-      </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="44"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -4771,11 +4760,9 @@
         <v>39</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="85">
-        <v>0</v>
-      </c>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="44"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -4911,11 +4898,9 @@
         <v>40</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="85">
-        <v>0</v>
-      </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="44"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -5051,11 +5036,9 @@
         <v>41</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="85">
-        <v>0</v>
-      </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="44"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -5191,11 +5174,9 @@
         <v>42</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="85">
-        <v>0</v>
-      </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="44"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -5331,11 +5312,9 @@
         <v>43</v>
       </c>
       <c r="D21" s="45"/>
-      <c r="E21" s="85">
-        <v>0</v>
-      </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="46"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -5469,11 +5448,9 @@
       <c r="B22" s="43"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="85">
-        <v>0</v>
-      </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="44"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -5609,11 +5586,9 @@
         <v>44</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="85">
-        <v>0</v>
-      </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="44"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -5749,11 +5724,9 @@
         <v>45</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="85">
-        <v>0</v>
-      </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="44"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -5889,11 +5862,11 @@
         <v>46</v>
       </c>
       <c r="D25" s="45"/>
-      <c r="E25" s="85">
+      <c r="E25" s="82">
         <v>0</v>
       </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="49"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -6044,27 +6017,27 @@
     <row r="28" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="76"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="19"/>
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B29" s="43"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="76"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="19"/>
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="2:135" x14ac:dyDescent="0.2">
       <c r="B30" s="43"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="76"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="19"/>
       <c r="H30" s="50"/>
     </row>
@@ -6074,10 +6047,10 @@
       <c r="D31" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="77"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="52"/>
       <c r="H31" s="53"/>
     </row>
